--- a/Assignment/Module 2/HLR AND TEST CASES.xlsx
+++ b/Assignment/Module 2/HLR AND TEST CASES.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tops\Assignment\Module 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARIF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ART OF TESTING" sheetId="1" r:id="rId1"/>
     <sheet name="FACEBOOK LOGIN " sheetId="2" r:id="rId2"/>
-    <sheet name="INSTAGRAM WEB" sheetId="3" r:id="rId3"/>
+    <sheet name="INSTAGRAM" sheetId="3" r:id="rId3"/>
     <sheet name="INSTAGRAM PHONE" sheetId="4" r:id="rId4"/>
     <sheet name="WHATSAPP WEB" sheetId="5" r:id="rId5"/>
     <sheet name="FLIPKART" sheetId="6" r:id="rId6"/>
@@ -1832,6 +1832,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1856,6 +1859,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,6 +1870,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1877,26 +1895,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2194,11 +2194,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="8" t="s">
@@ -2487,17 +2487,17 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="2" t="s">
@@ -3282,7 +3282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="90">
+    <row r="59" spans="1:9" ht="105">
       <c r="A59" s="3">
         <v>27</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="90">
+    <row r="63" spans="1:9" ht="105">
       <c r="A63" s="3">
         <v>31</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="90">
+    <row r="66" spans="1:9" ht="120">
       <c r="A66" s="3">
         <v>34</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="75">
+    <row r="73" spans="1:9" ht="90">
       <c r="A73" s="3">
         <v>41</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="60">
+    <row r="74" spans="1:9" ht="75">
       <c r="A74" s="3">
         <v>42</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="60">
+    <row r="77" spans="1:9" ht="75">
       <c r="A77" s="3">
         <v>45</v>
       </c>
@@ -3952,11 +3952,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
@@ -4300,17 +4300,17 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" ht="30">
       <c r="A35" s="10" t="s">
@@ -5369,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5381,20 +5381,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5402,10 +5402,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5413,10 +5413,10 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5424,10 +5424,10 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5652,17 +5652,17 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="10" t="s">
@@ -5709,7 +5709,7 @@
       <c r="E29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="20" t="s">
         <v>358</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -5723,13 +5723,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="105">
-      <c r="A30" s="18">
+      <c r="A30" s="19">
         <v>2</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -5752,13 +5752,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="90">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <v>3</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>2.1</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>192</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -5781,13 +5781,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="90">
-      <c r="A32" s="18">
+      <c r="A32" s="19">
         <v>4</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>192</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -5810,13 +5810,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="90">
-      <c r="A33" s="18">
+      <c r="A33" s="19">
         <v>5</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>192</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -5839,10 +5839,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="180">
-      <c r="A34" s="18">
+      <c r="A34" s="19">
         <v>6</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -5868,10 +5868,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="135">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>7</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>4</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -5897,10 +5897,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="75">
-      <c r="A36" s="18">
+      <c r="A36" s="19">
         <v>8</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <v>5</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -5926,10 +5926,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="75">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>9</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <v>6</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -5955,10 +5955,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="60">
-      <c r="A38" s="18">
+      <c r="A38" s="19">
         <v>10</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="19">
         <v>7</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -5984,10 +5984,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="60">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>11</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="19">
         <v>8</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -6013,10 +6013,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
-      <c r="A40" s="18">
+      <c r="A40" s="19">
         <v>12</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="19">
         <v>9</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -6042,10 +6042,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="60">
-      <c r="A41" s="18">
+      <c r="A41" s="19">
         <v>13</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="19">
         <v>10</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -6071,10 +6071,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="60">
-      <c r="A42" s="18">
+      <c r="A42" s="19">
         <v>14</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="19">
         <v>11</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -6100,10 +6100,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="60">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>15</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="19">
         <v>12</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -6129,10 +6129,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="60">
-      <c r="A44" s="18">
+      <c r="A44" s="19">
         <v>16</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="19">
         <v>13</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -6158,10 +6158,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="60">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>17</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="19">
         <v>14</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -6187,10 +6187,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="60">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>18</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="19">
         <v>15</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -6216,10 +6216,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="60">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>19</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="19">
         <v>16</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -6245,10 +6245,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="90">
-      <c r="A48" s="18">
+      <c r="A48" s="19">
         <v>20</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="19">
         <v>17</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -6274,10 +6274,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="60">
-      <c r="A49" s="18">
+      <c r="A49" s="19">
         <v>21</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="19">
         <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -6303,10 +6303,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="75">
-      <c r="A50" s="18">
+      <c r="A50" s="19">
         <v>22</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="19">
         <v>19</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -6332,10 +6332,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="60">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>23</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="19">
         <v>20</v>
       </c>
       <c r="C51" s="12" t="s">
@@ -6361,10 +6361,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="105">
-      <c r="A52" s="18">
+      <c r="A52" s="19">
         <v>24</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="19">
         <v>21</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -6385,15 +6385,15 @@
       <c r="H52" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="21" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="75">
-      <c r="A53" s="18">
+      <c r="A53" s="19">
         <v>25</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="19">
         <v>22</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -6419,10 +6419,10 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="75">
-      <c r="A54" s="18">
+      <c r="A54" s="19">
         <v>26</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="19">
         <v>23</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -6472,20 +6472,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6504,10 +6504,10 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6534,28 +6534,28 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="2" t="s">
@@ -6602,7 +6602,7 @@
       <c r="E11" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -6872,20 +6872,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6893,15 +6893,15 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -6912,7 +6912,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="105">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -6923,105 +6923,105 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="75">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75">
-      <c r="A13" s="18">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="10" t="s">
@@ -7053,42 +7053,42 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="60">
-      <c r="A17" s="22">
+      <c r="A17" s="24">
         <v>1</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <v>2</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="17">
         <v>2</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>409</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -7097,7 +7097,7 @@
       <c r="E18" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -7106,18 +7106,18 @@
       <c r="H18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="17">
         <v>3</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>411</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -7126,7 +7126,7 @@
       <c r="E19" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -7135,18 +7135,18 @@
       <c r="H19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <v>4</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>433</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -7155,7 +7155,7 @@
       <c r="E20" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>435</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -7164,27 +7164,27 @@
       <c r="H20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="120">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>5</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="17">
         <v>5</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>437</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="17" t="s">
         <v>439</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -7193,27 +7193,27 @@
       <c r="H21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75">
-      <c r="A22" s="16">
+      <c r="A22" s="17">
         <v>6</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="17">
         <v>6</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>441</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="17">
         <v>9318063321</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -7222,24 +7222,24 @@
       <c r="H22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90">
-      <c r="A23" s="16">
+      <c r="A23" s="17">
         <v>7</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="17">
         <v>6.1</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>441</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>442</v>
       </c>
       <c r="F23" s="11">
@@ -7251,27 +7251,27 @@
       <c r="H23" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="90">
-      <c r="A24" s="16">
+      <c r="A24" s="17">
         <v>8</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="17">
         <v>6.2</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>441</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -7280,18 +7280,18 @@
       <c r="H24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="75">
-      <c r="A25" s="16">
+      <c r="A25" s="17">
         <v>9</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="17">
         <v>7</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>418</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -7300,7 +7300,7 @@
       <c r="E25" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -7309,18 +7309,18 @@
       <c r="H25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="16">
+      <c r="A26" s="17">
         <v>10</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="17">
         <v>8</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>450</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -7329,7 +7329,7 @@
       <c r="E26" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -7338,18 +7338,18 @@
       <c r="H26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60">
-      <c r="A27" s="16">
+      <c r="A27" s="17">
         <v>11</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="17">
         <v>8.1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>450</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -7358,7 +7358,7 @@
       <c r="E27" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -7367,15 +7367,15 @@
       <c r="H27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="90">
-      <c r="A28" s="16">
+      <c r="A28" s="17">
         <v>12</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="17">
         <v>9</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -7387,7 +7387,7 @@
       <c r="E28" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="11" t="s">
@@ -7396,18 +7396,18 @@
       <c r="H28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60">
-      <c r="A29" s="16">
+      <c r="A29" s="17">
         <v>13</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="17">
         <v>10</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>458</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -7416,7 +7416,7 @@
       <c r="E29" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -7425,18 +7425,18 @@
       <c r="H29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105">
-      <c r="A30" s="16">
+      <c r="A30" s="17">
         <v>14</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="17">
         <v>11</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>461</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -7445,7 +7445,7 @@
       <c r="E30" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -7454,7 +7454,7 @@
       <c r="H30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="24" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -7483,11 +7483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="2" t="s">
@@ -7556,78 +7556,78 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="45">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="32" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="409.5">
-      <c r="A11" s="27">
+      <c r="A11" s="33">
         <v>1</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="33">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="33" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="120">
-      <c r="A12" s="27">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
       <c r="B12" s="12">
@@ -7636,254 +7636,254 @@
       <c r="C12" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="33" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="114.75">
-      <c r="A13" s="28">
+      <c r="A13" s="34">
         <v>3</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="34">
         <v>3</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72">
-      <c r="A14" s="28">
+      <c r="A14" s="34">
         <v>4</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="34">
         <v>3.1</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="86.25">
-      <c r="A15" s="28">
+      <c r="A15" s="34">
         <v>5</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="34">
         <v>3.2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="72">
-      <c r="A16" s="28">
+      <c r="A16" s="34">
         <v>6</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="34">
         <v>3.3</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="86.25">
-      <c r="A17" s="28">
+      <c r="A17" s="34">
         <v>7</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="34">
         <v>4</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="86.25">
-      <c r="A18" s="28">
+      <c r="A18" s="34">
         <v>8</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="86.25">
-      <c r="A19" s="28">
+      <c r="A19" s="34">
         <v>9</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="34">
         <v>4.2</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="72">
-      <c r="A20" s="28">
+      <c r="A20" s="34">
         <v>10</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="34">
         <v>5</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="34" t="s">
         <v>489</v>
       </c>
     </row>
